--- a/KS2/Year-5.xlsx
+++ b/KS2/Year-5.xlsx
@@ -16,7 +16,6 @@
   <customWorkbookViews>
     <customWorkbookView name="KS1" guid="{D1173E42-B57C-4BE6-8D29-F4ED70E39D90}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -160,9 +159,6 @@
     <t>Project Success Criteria</t>
   </si>
   <si>
-    <t>Nine-Thirteen</t>
-  </si>
-  <si>
     <t>To experiment with search engines                       -To describe how search engines select results</t>
   </si>
   <si>
@@ -376,6 +372,9 @@
     <t xml:space="preserve"> -I can identify conditions in a program
 - I can create program that performs selection using condtions
 </t>
+  </si>
+  <si>
+    <t>Nine-Twelve</t>
   </si>
 </sst>
 </file>
@@ -651,7 +650,103 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -909,15 +1004,15 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="38.1" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="19"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
     <col min="4" max="4" width="27.85546875" style="24" customWidth="1"/>
     <col min="5" max="5" width="31.28515625" style="24" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
@@ -991,32 +1086,32 @@
         <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="6">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6">
-        <v>1</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="M3" s="8">
         <v>1</v>
@@ -1030,13 +1125,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="6">
         <v>2</v>
@@ -1048,14 +1143,14 @@
         <v>2</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="M4" s="8">
         <v>1</v>
@@ -1069,13 +1164,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="6">
         <v>3</v>
@@ -1087,11 +1182,11 @@
         <v>3</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>3</v>
@@ -1108,13 +1203,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D6" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>59</v>
       </c>
       <c r="F6" s="6">
         <v>2</v>
@@ -1130,7 +1225,7 @@
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>5</v>
@@ -1147,13 +1242,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D7" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>59</v>
       </c>
       <c r="F7" s="6">
         <v>4</v>
@@ -1169,7 +1264,7 @@
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>7</v>
@@ -1186,13 +1281,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D8" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>59</v>
       </c>
       <c r="F8" s="6">
         <v>5</v>
@@ -1208,10 +1303,10 @@
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M8" s="15">
         <v>0</v>
@@ -1225,13 +1320,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" s="12">
         <v>1</v>
@@ -1247,10 +1342,10 @@
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="13" t="s">
         <v>62</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>63</v>
       </c>
       <c r="M9" s="17">
         <v>1</v>
@@ -1264,13 +1359,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" s="6">
         <v>2</v>
@@ -1286,10 +1381,10 @@
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="8">
         <v>1</v>
@@ -1303,13 +1398,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F11" s="6">
         <v>3</v>
@@ -1325,10 +1420,10 @@
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M11" s="8">
         <v>1</v>
@@ -1342,13 +1437,13 @@
         <v>5</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F12" s="6">
         <v>4</v>
@@ -1364,10 +1459,10 @@
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M12" s="8">
         <v>1</v>
@@ -1381,13 +1476,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F13" s="6">
         <v>5</v>
@@ -1403,10 +1498,10 @@
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M13" s="8">
         <v>1</v>
@@ -1420,13 +1515,13 @@
         <v>5</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14" s="9">
         <v>6</v>
@@ -1442,7 +1537,7 @@
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L14" s="10" t="s">
         <v>15</v>
@@ -1459,13 +1554,13 @@
         <v>5</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="12">
         <v>1</v>
@@ -1481,7 +1576,7 @@
       </c>
       <c r="J15" s="13"/>
       <c r="K15" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L15" s="13" t="s">
         <v>17</v>
@@ -1498,13 +1593,13 @@
         <v>5</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F16" s="6">
         <v>2</v>
@@ -1520,10 +1615,10 @@
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M16" s="15">
         <v>0</v>
@@ -1537,13 +1632,13 @@
         <v>5</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F17" s="6">
         <v>3</v>
@@ -1559,10 +1654,10 @@
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M17" s="15">
         <v>0</v>
@@ -1576,13 +1671,13 @@
         <v>5</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F18" s="6">
         <v>4</v>
@@ -1598,10 +1693,10 @@
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M18" s="15">
         <v>0</v>
@@ -1615,13 +1710,13 @@
         <v>5</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F19" s="6">
         <v>5</v>
@@ -1637,10 +1732,10 @@
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M19" s="15">
         <v>0</v>
@@ -1654,13 +1749,13 @@
         <v>5</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F20" s="9">
         <v>6</v>
@@ -1676,10 +1771,10 @@
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="L20" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>83</v>
       </c>
       <c r="M20" s="16">
         <v>0</v>
@@ -1693,13 +1788,13 @@
         <v>5</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F21" s="12">
         <v>1</v>
@@ -1715,10 +1810,10 @@
       </c>
       <c r="J21" s="13"/>
       <c r="K21" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="L21" s="13" t="s">
         <v>92</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>93</v>
       </c>
       <c r="M21" s="17">
         <v>1</v>
@@ -1732,13 +1827,13 @@
         <v>5</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F22" s="6">
         <v>2</v>
@@ -1754,7 +1849,7 @@
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>25</v>
@@ -1771,13 +1866,13 @@
         <v>5</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F23" s="6">
         <v>3</v>
@@ -1793,10 +1888,10 @@
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M23" s="8">
         <v>1</v>
@@ -1810,13 +1905,13 @@
         <v>5</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F24" s="6">
         <v>4</v>
@@ -1832,10 +1927,10 @@
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M24" s="8">
         <v>1</v>
@@ -1849,13 +1944,13 @@
         <v>5</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F25" s="6">
         <v>5</v>
@@ -1871,7 +1966,7 @@
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>29</v>
@@ -1888,13 +1983,13 @@
         <v>5</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F26" s="9">
         <v>6</v>
@@ -1910,10 +2005,10 @@
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L26" s="10" t="s">
         <v>90</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>91</v>
       </c>
       <c r="M26" s="11">
         <v>1</v>
@@ -1927,33 +2022,33 @@
     <filterColumn colId="8"/>
     <filterColumn colId="9"/>
   </autoFilter>
-  <conditionalFormatting sqref="B3:J14 L3:L14 K3:K26 M3:M26">
-    <cfRule type="expression" dxfId="5" priority="15">
+  <conditionalFormatting sqref="L3:L14 K3:K26 M3:M26 B3:J14">
+    <cfRule type="expression" dxfId="3" priority="15">
       <formula>$M3=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:J14 L3:L14 K3:K26 M3:M26">
-    <cfRule type="expression" dxfId="4" priority="17">
+  <conditionalFormatting sqref="L3:L14 K3:K26 M3:M26 B3:J14">
+    <cfRule type="expression" dxfId="2" priority="17">
       <formula>$M3=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:J20 L15:L20">
-    <cfRule type="expression" dxfId="3" priority="19">
+    <cfRule type="expression" dxfId="17" priority="19">
       <formula>$M21=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:J20 L15:L20">
-    <cfRule type="expression" dxfId="2" priority="21">
+    <cfRule type="expression" dxfId="16" priority="21">
       <formula>$M21=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:J26 L21:L26">
-    <cfRule type="expression" dxfId="1" priority="27">
+  <conditionalFormatting sqref="L21:L26 B21:J26">
+    <cfRule type="expression" dxfId="15" priority="27">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:J26 L21:L26">
-    <cfRule type="expression" dxfId="0" priority="31">
+  <conditionalFormatting sqref="L21:L26 B21:J26">
+    <cfRule type="expression" dxfId="14" priority="31">
       <formula>#REF!=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/KS2/Year-5.xlsx
+++ b/KS2/Year-5.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="100">
   <si>
     <t>Lesson</t>
   </si>
@@ -208,16 +208,10 @@
 - I can store, retrieve, and export my recording to a computer</t>
   </si>
   <si>
-    <t>Physical Computing</t>
-  </si>
-  <si>
     <t>Programming (PR)</t>
   </si>
   <si>
     <t>Media Creation (MC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Video Production</t>
   </si>
   <si>
     <t xml:space="preserve"> Introduction to Vector Graphics</t>
@@ -390,6 +384,15 @@
   </si>
   <si>
     <t>Crumble controller + starter kit + motor</t>
+  </si>
+  <si>
+    <t>Introduction to Video Production</t>
+  </si>
+  <si>
+    <t>Introduction to Physical Computing</t>
+  </si>
+  <si>
+    <t>Design (DE)</t>
   </si>
 </sst>
 </file>
@@ -708,39 +711,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1125,9 +1096,9 @@
   </sheetPr>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="38.1" customHeight="1"/>
@@ -1209,7 +1180,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>42</v>
@@ -1230,7 +1201,7 @@
         <v>38</v>
       </c>
       <c r="J3" s="30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>43</v>
@@ -1250,7 +1221,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>42</v>
@@ -1271,7 +1242,7 @@
         <v>39</v>
       </c>
       <c r="J4" s="30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>45</v>
@@ -1291,7 +1262,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>42</v>
@@ -1312,7 +1283,7 @@
         <v>40</v>
       </c>
       <c r="J5" s="30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>47</v>
@@ -1332,13 +1303,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="F6" s="4">
         <v>2</v>
@@ -1353,7 +1324,7 @@
         <v>4</v>
       </c>
       <c r="J6" s="30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>48</v>
@@ -1373,13 +1344,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="F7" s="4">
         <v>4</v>
@@ -1394,7 +1365,7 @@
         <v>6</v>
       </c>
       <c r="J7" s="30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>49</v>
@@ -1414,13 +1385,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="F8" s="4">
         <v>5</v>
@@ -1435,7 +1406,7 @@
         <v>8</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>50</v>
@@ -1455,13 +1426,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="F9" s="10">
         <v>1</v>
@@ -1476,13 +1447,13 @@
         <v>9</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M9" s="15">
         <v>1</v>
@@ -1496,13 +1467,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="F10" s="4">
         <v>2</v>
@@ -1517,13 +1488,13 @@
         <v>10</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M10" s="6">
         <v>1</v>
@@ -1537,13 +1508,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="F11" s="4">
         <v>3</v>
@@ -1558,13 +1529,13 @@
         <v>11</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M11" s="6">
         <v>1</v>
@@ -1578,13 +1549,13 @@
         <v>5</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="F12" s="4">
         <v>4</v>
@@ -1599,13 +1570,13 @@
         <v>12</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M12" s="6">
         <v>1</v>
@@ -1619,13 +1590,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="F13" s="4">
         <v>5</v>
@@ -1640,13 +1611,13 @@
         <v>13</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M13" s="6">
         <v>1</v>
@@ -1660,13 +1631,13 @@
         <v>5</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7">
         <v>6</v>
@@ -1681,10 +1652,10 @@
         <v>14</v>
       </c>
       <c r="J14" s="31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L14" s="8" t="s">
         <v>15</v>
@@ -1701,13 +1672,13 @@
         <v>5</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D15" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="20" t="s">
         <v>54</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>56</v>
       </c>
       <c r="F15" s="10">
         <v>1</v>
@@ -1722,10 +1693,10 @@
         <v>16</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L15" s="11" t="s">
         <v>17</v>
@@ -1742,13 +1713,13 @@
         <v>5</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D16" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="20" t="s">
         <v>54</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>56</v>
       </c>
       <c r="F16" s="4">
         <v>2</v>
@@ -1763,13 +1734,13 @@
         <v>18</v>
       </c>
       <c r="J16" s="31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M16" s="13">
         <v>0</v>
@@ -1783,13 +1754,13 @@
         <v>5</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D17" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="20" t="s">
         <v>54</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>56</v>
       </c>
       <c r="F17" s="4">
         <v>3</v>
@@ -1804,13 +1775,13 @@
         <v>19</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M17" s="13">
         <v>0</v>
@@ -1824,13 +1795,13 @@
         <v>5</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D18" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="20" t="s">
         <v>54</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>56</v>
       </c>
       <c r="F18" s="4">
         <v>4</v>
@@ -1845,13 +1816,13 @@
         <v>20</v>
       </c>
       <c r="J18" s="31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M18" s="13">
         <v>0</v>
@@ -1865,13 +1836,13 @@
         <v>5</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D19" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="20" t="s">
         <v>54</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>56</v>
       </c>
       <c r="F19" s="4">
         <v>5</v>
@@ -1883,16 +1854,16 @@
         <v>5</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M19" s="13">
         <v>0</v>
@@ -1906,13 +1877,13 @@
         <v>5</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D20" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>54</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>56</v>
       </c>
       <c r="F20" s="7">
         <v>6</v>
@@ -1924,16 +1895,16 @@
         <v>6</v>
       </c>
       <c r="I20" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="J20" s="31" t="s">
-        <v>94</v>
-      </c>
       <c r="K20" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M20" s="14">
         <v>0</v>
@@ -1947,13 +1918,13 @@
         <v>5</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F21" s="10">
         <v>1</v>
@@ -1968,13 +1939,13 @@
         <v>21</v>
       </c>
       <c r="J21" s="29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M21" s="15">
         <v>1</v>
@@ -1988,13 +1959,13 @@
         <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F22" s="4">
         <v>2</v>
@@ -2009,10 +1980,10 @@
         <v>22</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>23</v>
@@ -2029,13 +2000,13 @@
         <v>5</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F23" s="4">
         <v>3</v>
@@ -2050,13 +2021,13 @@
         <v>24</v>
       </c>
       <c r="J23" s="29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M23" s="6">
         <v>1</v>
@@ -2070,13 +2041,13 @@
         <v>5</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F24" s="4">
         <v>4</v>
@@ -2091,13 +2062,13 @@
         <v>25</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M24" s="6">
         <v>1</v>
@@ -2111,13 +2082,13 @@
         <v>5</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F25" s="4">
         <v>5</v>
@@ -2132,10 +2103,10 @@
         <v>26</v>
       </c>
       <c r="J25" s="29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L25" s="5" t="s">
         <v>27</v>
@@ -2152,13 +2123,13 @@
         <v>5</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F26" s="7">
         <v>6</v>
@@ -2170,16 +2141,16 @@
         <v>6</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J26" s="29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M26" s="9">
         <v>1</v>
@@ -2194,32 +2165,32 @@
     <filterColumn colId="9"/>
   </autoFilter>
   <conditionalFormatting sqref="L3:L14 K3:K26 M3:M26 B3:J14">
-    <cfRule type="expression" dxfId="25" priority="15">
+    <cfRule type="expression" dxfId="21" priority="15">
       <formula>$M3=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L14 K3:K26 M3:M26 B3:J14">
-    <cfRule type="expression" dxfId="24" priority="17">
+    <cfRule type="expression" dxfId="20" priority="17">
       <formula>$M3=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:L20 B15:J20">
-    <cfRule type="expression" dxfId="23" priority="19">
+    <cfRule type="expression" dxfId="19" priority="19">
       <formula>$M21=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:L20 B15:J20">
-    <cfRule type="expression" dxfId="22" priority="21">
+    <cfRule type="expression" dxfId="18" priority="21">
       <formula>$M21=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:L26 B21:J26">
-    <cfRule type="expression" dxfId="21" priority="27">
+    <cfRule type="expression" dxfId="17" priority="27">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:L26 B21:J26">
-    <cfRule type="expression" dxfId="20" priority="31">
+    <cfRule type="expression" dxfId="16" priority="31">
       <formula>#REF!=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/KS2/Year-5.xlsx
+++ b/KS2/Year-5.xlsx
@@ -711,135 +711,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1096,8 +968,8 @@
   </sheetPr>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -2165,32 +2037,32 @@
     <filterColumn colId="9"/>
   </autoFilter>
   <conditionalFormatting sqref="L3:L14 K3:K26 M3:M26 B3:J14">
-    <cfRule type="expression" dxfId="21" priority="15">
+    <cfRule type="expression" dxfId="5" priority="15">
       <formula>$M3=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L14 K3:K26 M3:M26 B3:J14">
-    <cfRule type="expression" dxfId="20" priority="17">
+    <cfRule type="expression" dxfId="4" priority="17">
       <formula>$M3=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:L20 B15:J20">
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="3" priority="19">
       <formula>$M21=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:L20 B15:J20">
-    <cfRule type="expression" dxfId="18" priority="21">
+    <cfRule type="expression" dxfId="2" priority="21">
       <formula>$M21=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:L26 B21:J26">
-    <cfRule type="expression" dxfId="17" priority="27">
+    <cfRule type="expression" dxfId="1" priority="27">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:L26 B21:J26">
-    <cfRule type="expression" dxfId="16" priority="31">
+    <cfRule type="expression" dxfId="0" priority="31">
       <formula>#REF!=0</formula>
     </cfRule>
   </conditionalFormatting>
